--- a/Rapport/test.xlsx
+++ b/Rapport/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Protocole de test</t>
   </si>
@@ -41,9 +41,6 @@
     <t>N°3</t>
   </si>
   <si>
-    <t>N°4</t>
-  </si>
-  <si>
     <t>N°5</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>3V</t>
   </si>
   <si>
-    <t>Comparateur</t>
-  </si>
-  <si>
     <t>enable lt5537</t>
   </si>
   <si>
@@ -120,6 +114,39 @@
   </si>
   <si>
     <t>N°8</t>
+  </si>
+  <si>
+    <t>N°9</t>
+  </si>
+  <si>
+    <t>tension de reference du comparateur</t>
+  </si>
+  <si>
+    <t>sortie du comparateur</t>
+  </si>
+  <si>
+    <t>0-3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le comparateur compare correctement </t>
+  </si>
+  <si>
+    <t>signal Carré</t>
+  </si>
+  <si>
+    <t>un signal carré modulé donne en sortie du LT5537 ce même signal carré</t>
+  </si>
+  <si>
+    <t>bouton 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V -&gt; 0V </t>
+  </si>
+  <si>
+    <t>le signal passe de 3V à 0v</t>
+  </si>
+  <si>
+    <t>bouton 2</t>
   </si>
 </sst>
 </file>
@@ -143,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -253,7 +280,93 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -264,6 +377,51 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,98 +431,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -373,9 +490,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -387,49 +516,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,188 +844,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="11">
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
